--- a/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,29%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 11,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 6,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 5,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 20,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,88; 115,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,23; 52,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,42; 65,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,12; 430,09</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,33; 12,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 9,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 6,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 13,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,33; 114,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 62,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 50,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 145,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 8,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,98; 14,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 8,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 5,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 46,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,04; 75,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 57,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,35; 38,43</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 19,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 18,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 12,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 11,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,0; 137,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,24; 93,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,17; 60,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 67,51</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 14,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,45; 18,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 18,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,23; 11,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 64,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,27; 79,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,58; 96,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,74; 51,87</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 9,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,15; 19,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,57; 19,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,61; 34,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 40,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,03; 76,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,91; 97,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,2; 125,4</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,75; 9,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,05; 12,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,83; 9,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,03; 16,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,44; 55,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,67; 60,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,06; 54,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,69; 81,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>165,29%</t>
+          <t>45,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 11,48</t>
+          <t>4,98; 17,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 6,93</t>
+          <t>3,95; 17,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,99</t>
+          <t>2,93; 16,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 20,96</t>
+          <t>1,68; 21,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 115,23</t>
+          <t>14,61; 59,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 52,51</t>
+          <t>10,72; 57,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 65,13</t>
+          <t>8,1; 54,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,12; 430,09</t>
+          <t>5,53; 107,87</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 12,86</t>
+          <t>7,88; 18,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,95</t>
+          <t>3,67; 14,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 6,79</t>
+          <t>-4,02; 7,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 13,52</t>
+          <t>0,12; 16,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,33; 114,06</t>
+          <t>21,72; 59,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 62,02</t>
+          <t>8,71; 38,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 50,82</t>
+          <t>-8,47; 18,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 145,44</t>
+          <t>0,32; 60,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>19,79%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 8,47</t>
+          <t>9,29; 20,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,93</t>
+          <t>3,78; 14,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,83</t>
+          <t>-4,32; 6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,97</t>
+          <t>1,15; 12,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 46,49</t>
+          <t>20,01; 50,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 75,47</t>
+          <t>7,39; 32,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 57,04</t>
+          <t>-8,78; 14,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 38,43</t>
+          <t>3,13; 39,93</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>15,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,17</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 19,6</t>
+          <t>9,54; 22,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 18,57</t>
+          <t>2,71; 14,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,57</t>
+          <t>1,32; 12,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 11,31</t>
+          <t>4,37; 20,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,0; 137,74</t>
+          <t>20,66; 56,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 93,78</t>
+          <t>5,31; 31,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 60,61</t>
+          <t>2,44; 25,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 67,51</t>
+          <t>10,32; 67,89</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>19,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 14,23</t>
+          <t>-3,24; 10,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 18,9</t>
+          <t>8,06; 22,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,26</t>
+          <t>6,5; 19,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,58</t>
+          <t>3,54; 14,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 64,75</t>
+          <t>-5,63; 21,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,27; 79,45</t>
+          <t>14,09; 45,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,58; 96,38</t>
+          <t>12,82; 46,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 51,87</t>
+          <t>7,39; 33,1</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>26,28%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,61</t>
+          <t>-6,81; 5,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,26</t>
+          <t>7,77; 19,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,48</t>
+          <t>3,59; 14,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 34,11</t>
+          <t>7,26; 26,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 40,43</t>
+          <t>-11,8; 10,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,03; 76,57</t>
+          <t>13,92; 40,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,91; 97,14</t>
+          <t>6,86; 30,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,2; 125,4</t>
+          <t>13,89; 57,54</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>27,82%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,75</t>
+          <t>8,16; 13,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,6</t>
+          <t>9,37; 14,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,87</t>
+          <t>4,32; 9,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,2</t>
+          <t>7,96; 16,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,44; 55,32</t>
+          <t>18,61; 31,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,67; 60,05</t>
+          <t>19,74; 32,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,06; 54,78</t>
+          <t>8,95; 20,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,69; 81,26</t>
+          <t>19,46; 43,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>51,77%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 17,18</t>
+          <t>4,33; 16,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 17,35</t>
+          <t>6,89; 20,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 16,18</t>
+          <t>3,44; 16,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,25</t>
+          <t>3,2; 24,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 59,97</t>
+          <t>11,53; 55,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 57,05</t>
+          <t>17,6; 64,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 54,55</t>
+          <t>9,4; 55,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 107,87</t>
+          <t>9,54; 116,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>14,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 18,67</t>
+          <t>8,6; 19,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,78</t>
+          <t>5,42; 16,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 7,61</t>
+          <t>-2,46; 9,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 16,15</t>
+          <t>2,61; 36,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,72; 59,35</t>
+          <t>22,85; 61,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 38,05</t>
+          <t>11,7; 40,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 18,53</t>
+          <t>-4,89; 21,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 60,44</t>
+          <t>6,37; 117,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>14,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>21,91%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,29; 20,31</t>
+          <t>9,05; 20,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 14,74</t>
+          <t>7,95; 18,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 6,58</t>
+          <t>-4,17; 6,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 12,13</t>
+          <t>1,72; 13,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 50,89</t>
+          <t>19,31; 49,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 32,94</t>
+          <t>14,96; 39,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 14,77</t>
+          <t>-8,12; 14,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 39,93</t>
+          <t>4,33; 40,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>17,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>17,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>55,35%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 22,16</t>
+          <t>11,52; 23,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 14,7</t>
+          <t>3,7; 15,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,3</t>
+          <t>1,65; 13,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,2</t>
+          <t>3,46; 38,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 56,04</t>
+          <t>23,25; 56,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 31,78</t>
+          <t>6,51; 31,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 25,53</t>
+          <t>3,05; 26,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 67,89</t>
+          <t>7,65; 260,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 10,91</t>
+          <t>-3,79; 10,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 22,05</t>
+          <t>6,79; 20,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 19,9</t>
+          <t>3,49; 16,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,15</t>
+          <t>2,76; 12,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 21,67</t>
+          <t>-6,49; 20,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 45,78</t>
+          <t>11,14; 40,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 46,56</t>
+          <t>6,13; 35,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 33,1</t>
+          <t>5,27; 27,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,96</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,21</t>
+          <t>21,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>43,14%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,33</t>
+          <t>-4,53; 10,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 19,43</t>
+          <t>5,65; 21,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 14,1</t>
+          <t>0,3; 15,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 26,98</t>
+          <t>4,74; 40,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 10,43</t>
+          <t>-7,68; 20,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,92; 40,94</t>
+          <t>9,92; 45,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 30,71</t>
+          <t>1,04; 32,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,89; 57,54</t>
+          <t>9,41; 87,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>-7,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 13,15</t>
+          <t>-12,79; 4,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,33</t>
+          <t>3,54; 19,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,25</t>
+          <t>-2,79; 13,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,71</t>
+          <t>2,77; 14,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 31,9</t>
+          <t>-21,29; 9,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,74; 32,01</t>
+          <t>5,65; 37,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 20,54</t>
+          <t>-4,75; 27,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,46; 43,41</t>
+          <t>4,88; 28,26</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,86</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,17</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 13,38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 15,49</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 8,99</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 28,22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18,68; 32,1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 32,63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 19,23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 88,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 16,64</t>
+          <t>4,52; 17,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 20,36</t>
+          <t>7,64; 20,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 16,81</t>
+          <t>3,27; 16,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 24,06</t>
+          <t>2,54; 24,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 55,76</t>
+          <t>12,36; 59,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 64,2</t>
+          <t>19,35; 64,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 55,33</t>
+          <t>9,24; 55,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 116,9</t>
+          <t>7,01; 121,9</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 19,44</t>
+          <t>8,92; 19,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 16,58</t>
+          <t>5,84; 17,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 9,23</t>
+          <t>-2,49; 9,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 36,26</t>
+          <t>2,98; 36,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 61,51</t>
+          <t>24,47; 62,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 40,03</t>
+          <t>12,23; 42,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 21,66</t>
+          <t>-5,36; 21,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 117,2</t>
+          <t>7,26; 126,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,05; 20,39</t>
+          <t>8,66; 19,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 18,54</t>
+          <t>7,35; 18,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,65</t>
+          <t>-4,21; 7,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 13,47</t>
+          <t>2,03; 13,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,31; 49,78</t>
+          <t>18,28; 49,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 39,14</t>
+          <t>13,82; 37,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 14,71</t>
+          <t>-8,08; 15,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 40,91</t>
+          <t>4,9; 39,84</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 23,63</t>
+          <t>10,92; 23,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 15,87</t>
+          <t>4,59; 16,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 13,05</t>
+          <t>1,63; 13,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 38,64</t>
+          <t>3,07; 37,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 56,31</t>
+          <t>22,73; 57,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 31,14</t>
+          <t>8,2; 33,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 26,12</t>
+          <t>2,8; 26,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 260,52</t>
+          <t>6,57; 289,46</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 10,5</t>
+          <t>-4,07; 9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 20,64</t>
+          <t>7,03; 20,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 16,72</t>
+          <t>2,96; 17,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 12,82</t>
+          <t>2,84; 12,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 20,25</t>
+          <t>-6,53; 19,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,14; 40,44</t>
+          <t>12,09; 40,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 35,44</t>
+          <t>5,57; 34,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 27,59</t>
+          <t>5,55; 28,13</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 10,86</t>
+          <t>-4,26; 10,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 21,41</t>
+          <t>6,98; 22,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 15,26</t>
+          <t>0,68; 15,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 40,16</t>
+          <t>4,1; 42,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 20,92</t>
+          <t>-7,34; 20,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 45,57</t>
+          <t>12,78; 50,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 32,75</t>
+          <t>1,29; 34,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 87,28</t>
+          <t>8,18; 98,25</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 4,47</t>
+          <t>-12,37; 4,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 19,31</t>
+          <t>2,63; 18,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 13,77</t>
+          <t>-1,49; 14,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 14,3</t>
+          <t>1,95; 13,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 9,25</t>
+          <t>-21,15; 9,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 37,34</t>
+          <t>4,58; 37,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 27,55</t>
+          <t>-2,47; 28,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 28,26</t>
+          <t>3,65; 27,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,38</t>
+          <t>8,46; 13,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,49</t>
+          <t>10,51; 15,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,99</t>
+          <t>4,3; 9,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,64; 28,22</t>
+          <t>9,41; 24,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,68; 32,1</t>
+          <t>18,96; 32,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,88; 32,63</t>
+          <t>20,82; 32,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,23</t>
+          <t>8,64; 20,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,07; 88,87</t>
+          <t>22,65; 74,33</t>
         </is>
       </c>
     </row>
